--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Homework(magistr)\2 Semestr\Artificial intelligence technologies\Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0435C0-114E-4375-96BD-1DDEC9456B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00318FB-DABD-49B2-86BB-4EF94E4086FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3E98B46-3E4F-4B6C-BB49-AA01137444FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Название лабораторной</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>heart-failure-prediction-clinical-records</t>
+  </si>
+  <si>
+    <t>bank-marketing-dataset-analysis-classification</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,12 +585,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -602,8 +607,9 @@
     <hyperlink ref="C6" r:id="rId4" xr:uid="{1F5FBE3B-D456-4CF3-A434-0A855C1091B7}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{E559C466-B8CE-460B-8A10-CE66D5C7E698}"/>
     <hyperlink ref="C2" r:id="rId6" xr:uid="{35C393A4-74AE-46A7-9B16-65D070CBE3FB}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{38C131BF-8B2A-4A19-9EC9-AF8A4EFF9DAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>